--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H2">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I2">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J2">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N2">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O2">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P2">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q2">
-        <v>20217.81261778817</v>
+        <v>20507.05217905855</v>
       </c>
       <c r="R2">
-        <v>20217.81261778817</v>
+        <v>82028.20871623421</v>
       </c>
       <c r="S2">
-        <v>0.1927212254133671</v>
+        <v>0.1840456825382255</v>
       </c>
       <c r="T2">
-        <v>0.1927212254133671</v>
+        <v>0.1183439813426626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H3">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I3">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J3">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N3">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P3">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q3">
-        <v>41.28987312412931</v>
+        <v>45.612128119043</v>
       </c>
       <c r="R3">
-        <v>41.28987312412931</v>
+        <v>273.672768714258</v>
       </c>
       <c r="S3">
-        <v>0.0003935853544632959</v>
+        <v>0.0004093574824109919</v>
       </c>
       <c r="T3">
-        <v>0.0003935853544632959</v>
+        <v>0.0003948339911548641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H4">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I4">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J4">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N4">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O4">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P4">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q4">
-        <v>6531.72928985667</v>
+        <v>7325.053101485797</v>
       </c>
       <c r="R4">
-        <v>6531.72928985667</v>
+        <v>43950.31860891478</v>
       </c>
       <c r="S4">
-        <v>0.06226207041319748</v>
+        <v>0.06574052603564351</v>
       </c>
       <c r="T4">
-        <v>0.06226207041319748</v>
+        <v>0.06340813443154106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H5">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I5">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J5">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N5">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O5">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P5">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q5">
-        <v>5503.847792294075</v>
+        <v>5610.325083103578</v>
       </c>
       <c r="R5">
-        <v>5503.847792294075</v>
+        <v>33661.95049862147</v>
       </c>
       <c r="S5">
-        <v>0.05246404796957756</v>
+        <v>0.05035126941528695</v>
       </c>
       <c r="T5">
-        <v>0.05246404796957756</v>
+        <v>0.04856486937984394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H6">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I6">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J6">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N6">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O6">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P6">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q6">
-        <v>13760.33397266667</v>
+        <v>14026.98669875908</v>
       </c>
       <c r="R6">
-        <v>13760.33397266667</v>
+        <v>84161.92019255448</v>
       </c>
       <c r="S6">
-        <v>0.1311669306389895</v>
+        <v>0.1258887098148615</v>
       </c>
       <c r="T6">
-        <v>0.1311669306389895</v>
+        <v>0.1214223359123424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H7">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I7">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J7">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N7">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O7">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P7">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q7">
-        <v>536.7595008962509</v>
+        <v>580.4608805217248</v>
       </c>
       <c r="R7">
-        <v>536.7595008962509</v>
+        <v>2321.843522086899</v>
       </c>
       <c r="S7">
-        <v>0.005116525250312151</v>
+        <v>0.005209491740185578</v>
       </c>
       <c r="T7">
-        <v>0.005116525250312151</v>
+        <v>0.003349776994509122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H8">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I8">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J8">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N8">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O8">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P8">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q8">
-        <v>9678.824384239982</v>
+        <v>10541.96151275048</v>
       </c>
       <c r="R8">
-        <v>9678.824384239982</v>
+        <v>63251.76907650288</v>
       </c>
       <c r="S8">
-        <v>0.09226096468271516</v>
+        <v>0.09461147730862884</v>
       </c>
       <c r="T8">
-        <v>0.09226096468271516</v>
+        <v>0.0912547804789331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H9">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I9">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J9">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N9">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P9">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q9">
-        <v>19.76660078768295</v>
+        <v>23.44760694745889</v>
       </c>
       <c r="R9">
-        <v>19.76660078768295</v>
+        <v>211.02846252713</v>
       </c>
       <c r="S9">
-        <v>0.000188420161867928</v>
+        <v>0.0002104364287393754</v>
       </c>
       <c r="T9">
-        <v>0.000188420161867928</v>
+        <v>0.0003044556113431116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H10">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I10">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J10">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N10">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O10">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P10">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q10">
-        <v>3126.918916356811</v>
+        <v>3765.554756503374</v>
       </c>
       <c r="R10">
-        <v>3126.918916356811</v>
+        <v>33889.99280853036</v>
       </c>
       <c r="S10">
-        <v>0.02980656991539818</v>
+        <v>0.03379491548782614</v>
       </c>
       <c r="T10">
-        <v>0.02980656991539818</v>
+        <v>0.04889387125970402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H11">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I11">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J11">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N11">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O11">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P11">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q11">
-        <v>2634.843700763763</v>
+        <v>2884.072785482705</v>
       </c>
       <c r="R11">
-        <v>2634.843700763763</v>
+        <v>25956.65506934434</v>
       </c>
       <c r="S11">
-        <v>0.02511598640186802</v>
+        <v>0.02588383448090752</v>
       </c>
       <c r="T11">
-        <v>0.02511598640186802</v>
+        <v>0.03744826263207759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H12">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I12">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J12">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N12">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O12">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P12">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q12">
-        <v>6587.451298898345</v>
+        <v>7210.785471604028</v>
       </c>
       <c r="R12">
-        <v>6587.451298898345</v>
+        <v>64897.06924443626</v>
       </c>
       <c r="S12">
-        <v>0.0627932264817604</v>
+        <v>0.0647150025352405</v>
       </c>
       <c r="T12">
-        <v>0.0627932264817604</v>
+        <v>0.09362849283257677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H13">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I13">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J13">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N13">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O13">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P13">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q13">
-        <v>256.9615736361232</v>
+        <v>298.3947282470025</v>
       </c>
       <c r="R13">
-        <v>256.9615736361232</v>
+        <v>1790.368369482015</v>
       </c>
       <c r="S13">
-        <v>0.002449421719920883</v>
+        <v>0.002678018320064035</v>
       </c>
       <c r="T13">
-        <v>0.002449421719920883</v>
+        <v>0.002583005581012277</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H14">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I14">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J14">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N14">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O14">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P14">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q14">
-        <v>31.49291604513722</v>
+        <v>19.686953367776</v>
       </c>
       <c r="R14">
-        <v>31.49291604513722</v>
+        <v>118.121720206656</v>
       </c>
       <c r="S14">
-        <v>0.0003001983195115359</v>
+        <v>0.0001766855000920415</v>
       </c>
       <c r="T14">
-        <v>0.0003001983195115359</v>
+        <v>0.0001704169196313698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H15">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I15">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J15">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N15">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P15">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q15">
-        <v>0.06431647836465255</v>
+        <v>0.04378805063955556</v>
       </c>
       <c r="R15">
-        <v>0.06431647836465255</v>
+        <v>0.394092455756</v>
       </c>
       <c r="S15">
-        <v>6.130806907272732E-07</v>
+        <v>3.929868416292955E-07</v>
       </c>
       <c r="T15">
-        <v>6.130806907272732E-07</v>
+        <v>5.685662403358313E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H16">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I16">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J16">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N16">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O16">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P16">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q16">
-        <v>10.17435496330779</v>
+        <v>7.032116442981335</v>
       </c>
       <c r="R16">
-        <v>10.17435496330779</v>
+        <v>63.289047986832</v>
       </c>
       <c r="S16">
-        <v>9.698448558149529E-05</v>
+        <v>6.311149253125829E-05</v>
       </c>
       <c r="T16">
-        <v>9.698448558149529E-05</v>
+        <v>9.130856361936137E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H17">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I17">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J17">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N17">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O17">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P17">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q17">
-        <v>8.573242799541472</v>
+        <v>5.385962220445999</v>
       </c>
       <c r="R17">
-        <v>8.573242799541472</v>
+        <v>48.47365998401399</v>
       </c>
       <c r="S17">
-        <v>8.172228565617767E-05</v>
+        <v>4.833766863866182E-05</v>
       </c>
       <c r="T17">
-        <v>8.172228565617767E-05</v>
+        <v>6.993406295880015E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H18">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I18">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J18">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N18">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O18">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P18">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q18">
-        <v>21.43421994983599</v>
+        <v>13.46603259296733</v>
       </c>
       <c r="R18">
-        <v>21.43421994983599</v>
+        <v>121.194293336706</v>
       </c>
       <c r="S18">
-        <v>0.0002043163230664042</v>
+        <v>0.0001208542865163978</v>
       </c>
       <c r="T18">
-        <v>0.0002043163230664042</v>
+        <v>0.0001748497914795714</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H19">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I19">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J19">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N19">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O19">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P19">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q19">
-        <v>0.8361004336978912</v>
+        <v>0.5572476330030001</v>
       </c>
       <c r="R19">
-        <v>0.8361004336978912</v>
+        <v>3.343485798018</v>
       </c>
       <c r="S19">
-        <v>7.969917576995199E-06</v>
+        <v>5.00115862891202E-06</v>
       </c>
       <c r="T19">
-        <v>7.969917576995199E-06</v>
+        <v>4.823723778595573E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H20">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I20">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J20">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N20">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O20">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P20">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q20">
-        <v>9534.451592276879</v>
+        <v>40.452259737952</v>
       </c>
       <c r="R20">
-        <v>9534.451592276879</v>
+        <v>242.713558427712</v>
       </c>
       <c r="S20">
-        <v>0.09088476727157691</v>
+        <v>0.0003630489496334204</v>
       </c>
       <c r="T20">
-        <v>0.09088476727157691</v>
+        <v>0.0003501684271754149</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H21">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I21">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J21">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N21">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P21">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q21">
-        <v>19.47175512977592</v>
+        <v>0.08997459204577779</v>
       </c>
       <c r="R21">
-        <v>19.47175512977592</v>
+        <v>0.8097713284120001</v>
       </c>
       <c r="S21">
-        <v>0.000185609619621154</v>
+        <v>8.074995401374056E-07</v>
       </c>
       <c r="T21">
-        <v>0.000185609619621154</v>
+        <v>1.168275700289025E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H22">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I22">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J22">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N22">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O22">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P22">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q22">
-        <v>3080.276680040203</v>
+        <v>14.44941711116267</v>
       </c>
       <c r="R22">
-        <v>3080.276680040203</v>
+        <v>130.044754000464</v>
       </c>
       <c r="S22">
-        <v>0.02936196450190018</v>
+        <v>0.0001296799174880499</v>
       </c>
       <c r="T22">
-        <v>0.02936196450190018</v>
+        <v>0.0001876185544217086</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H23">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I23">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J23">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N23">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O23">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P23">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q23">
-        <v>2595.541433632533</v>
+        <v>11.066940557542</v>
       </c>
       <c r="R23">
-        <v>2595.541433632533</v>
+        <v>99.60246501787799</v>
       </c>
       <c r="S23">
-        <v>0.02474134740277126</v>
+        <v>9.932303340032238E-05</v>
       </c>
       <c r="T23">
-        <v>0.02474134740277126</v>
+        <v>0.0001436987646839363</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H24">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I24">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J24">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N24">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O24">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P24">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q24">
-        <v>6489.190528975551</v>
+        <v>27.66966721128467</v>
       </c>
       <c r="R24">
-        <v>6489.190528975551</v>
+        <v>249.027004901562</v>
       </c>
       <c r="S24">
-        <v>0.06185658034958087</v>
+        <v>0.0002483283673850891</v>
       </c>
       <c r="T24">
-        <v>0.06185658034958087</v>
+        <v>0.0003592769814569536</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H25">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I25">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J25">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N25">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O25">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P25">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q25">
-        <v>253.1286432780224</v>
+        <v>1.145018508831</v>
       </c>
       <c r="R25">
-        <v>253.1286432780224</v>
+        <v>6.870111052986</v>
       </c>
       <c r="S25">
-        <v>0.002412885273100351</v>
+        <v>1.027625575517393E-05</v>
       </c>
       <c r="T25">
-        <v>0.002412885273100351</v>
+        <v>9.911667059428147E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H26">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I26">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J26">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N26">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O26">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P26">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q26">
-        <v>6060.279424141164</v>
+        <v>9755.178862342178</v>
       </c>
       <c r="R26">
-        <v>6060.279424141164</v>
+        <v>58531.07317405306</v>
       </c>
       <c r="S26">
-        <v>0.05776809287174374</v>
+        <v>0.0875502991032356</v>
       </c>
       <c r="T26">
-        <v>0.05776809287174374</v>
+        <v>0.08444412404077369</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H27">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I27">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J27">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N27">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P27">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q27">
-        <v>12.37661923423915</v>
+        <v>21.69763182968401</v>
       </c>
       <c r="R27">
-        <v>12.37661923423915</v>
+        <v>195.278686467156</v>
       </c>
       <c r="S27">
-        <v>0.0001179770171179954</v>
+        <v>0.000194730838186254</v>
       </c>
       <c r="T27">
-        <v>0.0001179770171179954</v>
+        <v>0.0002817330475645881</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H28">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I28">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J28">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N28">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O28">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P28">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q28">
-        <v>1957.882653663107</v>
+        <v>3484.518523540849</v>
       </c>
       <c r="R28">
-        <v>1957.882653663107</v>
+        <v>31360.66671186764</v>
       </c>
       <c r="S28">
-        <v>0.01866302509389903</v>
+        <v>0.03127268533685502</v>
       </c>
       <c r="T28">
-        <v>0.01866302509389903</v>
+        <v>0.04524475438786719</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H29">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I29">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J29">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N29">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O29">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P29">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q29">
-        <v>1649.775678497389</v>
+        <v>2668.824567455346</v>
       </c>
       <c r="R29">
-        <v>1649.775678497389</v>
+        <v>24019.42110709811</v>
       </c>
       <c r="S29">
-        <v>0.0157260726680911</v>
+        <v>0.02395203536828632</v>
       </c>
       <c r="T29">
-        <v>0.0157260726680911</v>
+        <v>0.0346533706860943</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H30">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I30">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J30">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N30">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O30">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P30">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q30">
-        <v>4124.653364849788</v>
+        <v>6672.619884676736</v>
       </c>
       <c r="R30">
-        <v>4124.653364849788</v>
+        <v>60053.57896209061</v>
       </c>
       <c r="S30">
-        <v>0.03931722317872496</v>
+        <v>0.05988510051422923</v>
       </c>
       <c r="T30">
-        <v>0.03931722317872496</v>
+        <v>0.08664067812129637</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>45.68416200000001</v>
+      </c>
+      <c r="H31">
+        <v>137.052486</v>
+      </c>
+      <c r="I31">
+        <v>0.2053329998124694</v>
+      </c>
+      <c r="J31">
+        <v>0.2536548873219633</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.0442065</v>
+      </c>
+      <c r="N31">
+        <v>12.088413</v>
+      </c>
+      <c r="O31">
+        <v>0.01206892537458823</v>
+      </c>
+      <c r="P31">
+        <v>0.009423146005987719</v>
+      </c>
+      <c r="Q31">
+        <v>276.124508907453</v>
+      </c>
+      <c r="R31">
+        <v>1656.747053444718</v>
+      </c>
+      <c r="S31">
+        <v>0.002478148651677033</v>
+      </c>
+      <c r="T31">
+        <v>0.002390227038367224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>31.1177355</v>
+      </c>
+      <c r="H32">
+        <v>62.235471</v>
+      </c>
+      <c r="I32">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J32">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>213.535248</v>
+      </c>
+      <c r="N32">
+        <v>427.070496</v>
+      </c>
+      <c r="O32">
+        <v>0.4263820193694889</v>
+      </c>
+      <c r="P32">
+        <v>0.3329095091851671</v>
+      </c>
+      <c r="Q32">
+        <v>6644.733367190905</v>
+      </c>
+      <c r="R32">
+        <v>26578.93346876362</v>
+      </c>
+      <c r="S32">
+        <v>0.05963482596967353</v>
+      </c>
+      <c r="T32">
+        <v>0.03834603797599099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>31.1177355</v>
+      </c>
+      <c r="H33">
+        <v>62.235471</v>
+      </c>
+      <c r="I33">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J33">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.4749486666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.424846</v>
+      </c>
+      <c r="O33">
+        <v>0.0009483660121076572</v>
+      </c>
+      <c r="P33">
+        <v>0.001110694339616588</v>
+      </c>
+      <c r="Q33">
+        <v>14.779326985411</v>
+      </c>
+      <c r="R33">
+        <v>88.67596191246601</v>
+      </c>
+      <c r="S33">
+        <v>0.0001326407763892692</v>
+      </c>
+      <c r="T33">
+        <v>0.0001279348476133993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>31.1177355</v>
+      </c>
+      <c r="H34">
+        <v>62.235471</v>
+      </c>
+      <c r="I34">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J34">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>76.27410400000001</v>
+      </c>
+      <c r="N34">
+        <v>228.822312</v>
+      </c>
+      <c r="O34">
+        <v>0.1523022863612588</v>
+      </c>
+      <c r="P34">
+        <v>0.1783713094021254</v>
+      </c>
+      <c r="Q34">
+        <v>2373.477393771492</v>
+      </c>
+      <c r="R34">
+        <v>14240.86436262895</v>
+      </c>
+      <c r="S34">
+        <v>0.02130136809091481</v>
+      </c>
+      <c r="T34">
+        <v>0.02054562220497213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>31.1177355</v>
+      </c>
+      <c r="H35">
+        <v>62.235471</v>
+      </c>
+      <c r="I35">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J35">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>58.41903299999999</v>
+      </c>
+      <c r="N35">
+        <v>175.257099</v>
+      </c>
+      <c r="O35">
+        <v>0.1166497123704505</v>
+      </c>
+      <c r="P35">
+        <v>0.1366162152519809</v>
+      </c>
+      <c r="Q35">
+        <v>1817.868017059771</v>
+      </c>
+      <c r="R35">
+        <v>10907.20810235863</v>
+      </c>
+      <c r="S35">
+        <v>0.01631491240393068</v>
+      </c>
+      <c r="T35">
+        <v>0.0157360797263223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>28.6829480344756</v>
-      </c>
-      <c r="H31">
-        <v>28.6829480344756</v>
-      </c>
-      <c r="I31">
-        <v>0.1331260667659283</v>
-      </c>
-      <c r="J31">
-        <v>0.1331260667659283</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.60937450199539</v>
-      </c>
-      <c r="N31">
-        <v>5.60937450199539</v>
-      </c>
-      <c r="O31">
-        <v>0.01152047809726188</v>
-      </c>
-      <c r="P31">
-        <v>0.01152047809726188</v>
-      </c>
-      <c r="Q31">
-        <v>160.8933973466462</v>
-      </c>
-      <c r="R31">
-        <v>160.8933973466462</v>
-      </c>
-      <c r="S31">
-        <v>0.0015336759363515</v>
-      </c>
-      <c r="T31">
-        <v>0.0015336759363515</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>31.1177355</v>
+      </c>
+      <c r="H36">
+        <v>62.235471</v>
+      </c>
+      <c r="I36">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J36">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>146.059807</v>
+      </c>
+      <c r="N36">
+        <v>438.179421</v>
+      </c>
+      <c r="O36">
+        <v>0.291648690512106</v>
+      </c>
+      <c r="P36">
+        <v>0.3415691258151223</v>
+      </c>
+      <c r="Q36">
+        <v>4545.050441407049</v>
+      </c>
+      <c r="R36">
+        <v>27270.30264844229</v>
+      </c>
+      <c r="S36">
+        <v>0.04079069499387335</v>
+      </c>
+      <c r="T36">
+        <v>0.03934349217597027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>31.1177355</v>
+      </c>
+      <c r="H37">
+        <v>62.235471</v>
+      </c>
+      <c r="I37">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J37">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.0442065</v>
+      </c>
+      <c r="N37">
+        <v>12.088413</v>
+      </c>
+      <c r="O37">
+        <v>0.01206892537458823</v>
+      </c>
+      <c r="P37">
+        <v>0.009423146005987719</v>
+      </c>
+      <c r="Q37">
+        <v>188.0820191743808</v>
+      </c>
+      <c r="R37">
+        <v>752.3280766975231</v>
+      </c>
+      <c r="S37">
+        <v>0.0016879892482775</v>
+      </c>
+      <c r="T37">
+        <v>0.001085401001261073</v>
       </c>
     </row>
   </sheetData>
